--- a/xlsx/怀俄明州_intext.xlsx
+++ b/xlsx/怀俄明州_intext.xlsx
@@ -20,922 +20,922 @@
     <t>怀俄明州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>怀俄明州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6</t>
+  </si>
+  <si>
+    <t>夏延</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E%E5%B7%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>怀俄明州州长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>马特·米德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Wyoming</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Wyoming</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E6%81%A9%E9%BD%8A</t>
+  </si>
+  <si>
+    <t>麦克·恩齐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B7%B4%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>约翰·巴拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Wyoming</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Wyoming</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%9F%B3%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>黄石国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8F%90%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>大提顿国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8B%92%E7%B1%B3%E5%8E%BF_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>拉勒米县 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%8F%80_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡斯珀 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%89%B9%E7%BE%85%E7%B4%8D%E7%B8%A3_(%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>纳特罗纳县 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8B%92%E7%B1%B3_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>拉勒米 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC%E7%B8%A3_(%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥尔巴尼县 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E6%96%AF%E6%99%AE%E6%9E%97_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗克斯普林 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Gillette,_Wyoming</t>
+  </si>
+  <si>
+    <t>Gillette, Wyoming</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E9%87%8C%E7%99%BB_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>谢里登 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Green_River,_Wyoming</t>
+  </si>
+  <si>
+    <t>Green River, Wyoming</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%87%E6%96%AF%E9%A1%BF_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>埃文斯顿 (怀俄明州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%8B%84%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>大狄顿国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC%E5%A1%94%E5%9C%8B%E5%AE%B6%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
+  </si>
+  <si>
+    <t>魔鬼塔国家自然保护区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉美裔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>卫理公会派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>长老教会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>浸礼会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>怀俄明大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Casper_College</t>
+  </si>
+  <si>
+    <t>en-Casper College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sheridan_College_(Wyoming)</t>
+  </si>
+  <si>
+    <t>en-Sheridan College (Wyoming)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Laramie_County_Community_College</t>
+  </si>
+  <si>
+    <t>en-Laramie County Community College</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
+  </si>
+  <si>
+    <t>科罗拉多洛矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%C2%B7%E6%B3%A2%E6%B4%9B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>杰克逊·波洛克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%85%8B%E9%A0%93%E8%A8%88%E5%8A%83</t>
+  </si>
+  <si>
+    <t>曼克顿计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E6%A4%8D%E7%89%A9</t>
+  </si>
+  <si>
+    <t>寄生植物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%9D%A8%E6%A0%91</t>
+  </si>
+  <si>
+    <t>白杨树</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/25%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>25号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/80%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>80号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/90%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>90号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
+  </si>
+  <si>
+    <t>LIBRIS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>西班牙国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>怀俄明州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6</t>
-  </si>
-  <si>
-    <t>夏延</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E%E5%B7%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>怀俄明州州长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>馬特·米德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Wyoming</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Wyoming</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E6%81%A9%E9%BD%8A</t>
-  </si>
-  <si>
-    <t>麥克·恩齊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B7%B4%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>約翰·巴拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Wyoming</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Wyoming</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
-  </si>
-  <si>
-    <t>UTC-7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%9F%B3%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>黄石国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8F%90%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>大提頓國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科罗拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8B%92%E7%B1%B3%E5%8E%BF_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>拉勒米县 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%8F%80_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡斯珀 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%89%B9%E7%BE%85%E7%B4%8D%E7%B8%A3_(%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>納特羅納縣 (懷俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8B%92%E7%B1%B3_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>拉勒米 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC%E7%B8%A3_(%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奧爾巴尼縣 (懷俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E6%96%AF%E6%99%AE%E6%9E%97_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>罗克斯普林 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Gillette,_Wyoming</t>
-  </si>
-  <si>
-    <t>Gillette, Wyoming</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E9%87%8C%E7%99%BB_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>谢里登 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Green_River,_Wyoming</t>
-  </si>
-  <si>
-    <t>Green River, Wyoming</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%87%E6%96%AF%E9%A1%BF_(%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>埃文斯顿 (怀俄明州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>黃石國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%8B%84%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>大狄頓國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC%E5%A1%94%E5%9C%8B%E5%AE%B6%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
-  </si>
-  <si>
-    <t>魔鬼塔國家自然保護區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉美裔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>衛理公會派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>長老教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>浸礼会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>怀俄明大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Casper_College</t>
-  </si>
-  <si>
-    <t>en-Casper College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sheridan_College_(Wyoming)</t>
-  </si>
-  <si>
-    <t>en-Sheridan College (Wyoming)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Laramie_County_Community_College</t>
-  </si>
-  <si>
-    <t>en-Laramie County Community College</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
-  </si>
-  <si>
-    <t>科羅拉多洛磯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%C2%B7%E6%B3%A2%E6%B4%9B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>杰克逊·波洛克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%85%8B%E9%A0%93%E8%A8%88%E5%8A%83</t>
-  </si>
-  <si>
-    <t>曼克頓計劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E6%A4%8D%E7%89%A9</t>
-  </si>
-  <si>
-    <t>寄生植物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%9D%A8%E6%A0%91</t>
-  </si>
-  <si>
-    <t>白杨树</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/25%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>25号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/80%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>80号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/90%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>90号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
-  </si>
-  <si>
-    <t>LIBRIS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>西班牙国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2698,7 +2698,7 @@
         <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2724,10 +2724,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2753,10 +2753,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2782,10 +2782,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2811,10 +2811,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2869,10 +2869,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2898,10 +2898,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2956,10 +2956,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3014,10 +3014,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3043,10 +3043,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3072,10 +3072,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3101,10 +3101,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3246,10 +3246,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3275,10 +3275,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3333,10 +3333,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3362,10 +3362,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3391,10 +3391,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3420,10 +3420,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3449,10 +3449,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3507,10 +3507,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3536,10 +3536,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3565,13 +3565,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
       </c>
-      <c r="F79" t="s">
-        <v>156</v>
-      </c>
       <c r="G79" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3594,10 +3594,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3652,10 +3652,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3681,10 +3681,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3710,10 +3710,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3739,10 +3739,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3768,10 +3768,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3797,10 +3797,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3826,10 +3826,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3855,10 +3855,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3942,10 +3942,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4000,10 +4000,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4029,10 +4029,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4058,10 +4058,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4087,10 +4087,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4145,10 +4145,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4174,10 +4174,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4203,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4232,10 +4232,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4261,10 +4261,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4290,10 +4290,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4348,10 +4348,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4377,10 +4377,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4464,10 +4464,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4493,10 +4493,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4522,10 +4522,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4551,10 +4551,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4580,10 +4580,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4609,10 +4609,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4638,10 +4638,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4725,10 +4725,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4812,10 +4812,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4870,10 +4870,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4899,10 +4899,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4928,10 +4928,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4957,10 +4957,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5015,10 +5015,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5044,10 +5044,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5102,10 +5102,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5131,10 +5131,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5218,10 +5218,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5247,10 +5247,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5305,10 +5305,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5334,10 +5334,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5363,10 +5363,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5421,10 +5421,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5450,10 +5450,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5508,10 +5508,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5537,10 +5537,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5566,10 +5566,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5595,10 +5595,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5624,10 +5624,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5653,10 +5653,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5740,10 +5740,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5769,10 +5769,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5798,10 +5798,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5827,10 +5827,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5856,18 +5856,76 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
+        <v>303</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G159" t="n">
+        <v>6</v>
+      </c>
+      <c r="H159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>304</v>
+      </c>
+      <c r="F160" t="s">
         <v>306</v>
       </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" t="n">
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>4</v>
+      </c>
+      <c r="I160" t="n">
         <v>3</v>
       </c>
     </row>
